--- a/МПОР2.xlsx
+++ b/МПОР2.xlsx
@@ -4,14 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9000" windowHeight="6105" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4470" windowHeight="6075" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
     <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="7" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="results" localSheetId="4">Лист5!$A$1:$N$67</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,8 +31,33 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="results" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="866" sourceFile="C:\Users\pobedinskij.2018\Desktop\mpor\results.txt" thousands=" ">
+      <textFields count="14">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="71">
   <si>
     <t>u1</t>
   </si>
@@ -187,6 +216,60 @@
   </si>
   <si>
     <t>Вычислим значения Di по строкам как частное от деления: bi / ai1 и из них выберем наименьшее:</t>
+  </si>
+  <si>
+    <t>w1</t>
+  </si>
+  <si>
+    <t>w2</t>
+  </si>
+  <si>
+    <t>w3</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F0</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>f3</t>
   </si>
 </sst>
 </file>
@@ -472,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -557,6 +640,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -566,11 +651,28 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -587,6 +689,1537 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Значения критериев </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>F</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>2 и </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>F</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист5!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{66DB3EEF-E0A9-4E53-ABB7-9C1038E171EF}" type="XVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ X]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{E4628409-DC7B-4E6E-B40E-D534B840D362}" type="CELLREF">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{E4628409-DC7B-4E6E-B40E-D534B840D362}</c15:txfldGUID>
+                      <c15:f>Лист5!$L$12</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>867.30</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-30A2-4B8E-821D-B4A1159CC3B9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист5!$M$2:$M$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>58.241758228271998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.241758221420397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.241758243703899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.241758239992102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.241758226787503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.241758227894699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.2417582359421</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.241758256904397</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.241758206273502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.241758240024403</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.1054273576010003E-15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58.241758255366697</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>58.241758221501399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58.241758245159801</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58.241758211042502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58.241758220903698</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58.2417582487587</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58.241758214567902</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58.241758245055699</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58.2417582528239</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>58.2417582209413</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>58.2417582467762</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>58.241758236946303</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>58.241758267606997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>58.2417582674843</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>58.241758222439501</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>58.2417582285346</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58.241758247041098</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58.241758237756898</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>58.241758220166297</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>58.241758222574802</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>58.241758232324401</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>58.241758235878997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>58.241758260410599</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>58.241758265706302</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>58.241758216024103</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>58.241758227536302</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58.241758228250703</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>58.241758243766199</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>58.241758226412301</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>58.241758231530198</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>58.241758254040597</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>58.241758223664498</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>58.241758267521398</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>58.241758203297898</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>58.241758273626999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>58.241758254252403</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>58.241758232262697</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>58.241758232739301</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>58.241758272307997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58.241758240351999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>58.241758236796002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>58.241758215493597</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>58.241758221642101</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>58.2417582151188</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>58.241758243614299</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58.241758223755497</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58.241758235669003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>58.2417582104774</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>58.2417582445416</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>58.2417582143987</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>58.241758239416797</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>58.2417582350757</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>58.2417582079837</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>58.241758260197997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист5!$L$2:$L$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>789.01098902843398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>789.01098903729803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>789.01098900847001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>789.01098901327703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>789.01098903035802</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>789.01098902892204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>789.01098901851401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>789.01098899139299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>789.01098905689196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>789.01098901323201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>867.30219392422396</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>789.01098899338604</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>789.01098903718798</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>789.01098900659395</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>789.01098905072195</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>789.01098903796606</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>789.01098900193404</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>789.01098904616197</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>789.01098900672002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>789.01098899667397</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>867.530325236679</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>789.01098903792104</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>789.01098900449801</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>789.01098901721105</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>789.01098897755003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>789.01098897770999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>789.01098903597995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>789.01098902809497</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>789.01098900414604</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>789.01098901616103</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>789.01098903891898</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>789.01098903580203</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>789.01098902318699</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>789.010989018592</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>789.01098898685905</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>789.01098898001203</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>789.01098904427704</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>789.010989029386</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>789.01098902845899</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>789.01098900838304</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>789.01098903083596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>789.01098902422098</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>789.01098899510305</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>789.01098903439402</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>789.01098897766099</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>789.01098906074799</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>789.010988969761</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>789.01098899482895</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>789.01098902327897</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>789.01098902265903</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>789.01098897147097</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>789.01098901281</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>789.01098901741</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>789.01098904496303</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>789.01098903701097</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>789.01098904544494</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>789.01098900858199</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>789.01098903427896</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>789.01098901886496</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>789.01098905145102</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>789.01098900737998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>789.010989046379</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>789.01098901400701</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>789.01098901963303</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>789.01098905467904</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>789.01098898713497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-30A2-4B8E-821D-B4A1159CC3B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="838004207"/>
+        <c:axId val="838005871"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="838004207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>F3</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="838005871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="838005871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>F2</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="838004207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1566,7 +3199,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="31">
@@ -1584,7 +3217,7 @@
       <c r="F2" s="32">
         <v>1</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="80" t="s">
         <v>47</v>
       </c>
       <c r="J2" s="31">
@@ -1601,7 +3234,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="31">
         <v>16</v>
       </c>
@@ -1617,7 +3250,7 @@
       <c r="F3" s="32">
         <v>1</v>
       </c>
-      <c r="I3" s="78"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="31">
         <v>1</v>
       </c>
@@ -1712,20 +3345,20 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
@@ -1935,56 +3568,56 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
       <c r="M20" s="1">
         <f>ABS(MIN(B17:K17))</f>
         <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
       <c r="M21" s="19" t="str">
         <f>IF(E13&gt;0, K13/E13, "-")</f>
         <v>-</v>
@@ -2009,19 +3642,19 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="80" t="s">
+      <c r="A25" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="J25" s="80" t="s">
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="J25" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
       <c r="M25" s="1">
         <f>E15</f>
         <v>2</v>
@@ -2300,56 +3933,56 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="80" t="s">
+      <c r="A34" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="80" t="s">
+      <c r="A35" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
       <c r="M35" s="1">
         <f>ABS(MIN(B32:K32))</f>
         <v>10.500000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="80" t="s">
+      <c r="A36" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="80"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
       <c r="M36" s="19">
         <f>IF(D28&gt;0, K28/D28, "-")</f>
         <v>400</v>
@@ -2374,19 +4007,19 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="80" t="s">
+      <c r="A40" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="J40" s="80" t="s">
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="J40" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
       <c r="M40" s="1">
         <f>D29</f>
         <v>5.5</v>
@@ -2665,56 +4298,56 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="80" t="s">
+      <c r="A49" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="80"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="80"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="80"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="82"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="80" t="s">
+      <c r="A50" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="80"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
       <c r="M50" s="1">
         <f>ABS(MIN(B47:K47))</f>
         <v>3.2727272727272751</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="80" t="s">
+      <c r="A51" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="80"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
-      <c r="K51" s="80"/>
-      <c r="L51" s="80"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
       <c r="M51" s="28">
         <f>IF(B43&gt;0, K43/B43, "-")</f>
         <v>144.44444444444446</v>
@@ -2739,19 +4372,19 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="80" t="s">
+      <c r="A55" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="J55" s="80" t="s">
+      <c r="B55" s="82"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="J55" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="K55" s="80"/>
-      <c r="L55" s="80"/>
+      <c r="K55" s="82"/>
+      <c r="L55" s="82"/>
       <c r="M55" s="1">
         <f>B43</f>
         <v>2.4545454545454546</v>
@@ -3168,7 +4801,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="31">
@@ -3186,7 +4819,7 @@
       <c r="F2" s="32">
         <v>1</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="80" t="s">
         <v>47</v>
       </c>
       <c r="J2" s="31">
@@ -3203,7 +4836,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="31">
         <v>16</v>
       </c>
@@ -3219,7 +4852,7 @@
       <c r="F3" s="32">
         <v>1</v>
       </c>
-      <c r="I3" s="78"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="31">
         <v>1</v>
       </c>
@@ -3314,20 +4947,20 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
@@ -3525,56 +5158,56 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
       <c r="M20" s="1">
         <f>ABS(MIN(B17:I17))</f>
         <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
       <c r="M21" s="19" t="str">
         <f>IF(E13&gt;0, I13/E13, "-")</f>
         <v>-</v>
@@ -3599,19 +5232,19 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="80" t="s">
+      <c r="A25" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="J25" s="80" t="s">
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="J25" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
       <c r="M25" s="1">
         <f>E15</f>
         <v>2</v>
@@ -3854,56 +5487,56 @@
       <c r="K32"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="80" t="s">
+      <c r="A34" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="80" t="s">
+      <c r="A35" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
       <c r="M35" s="1">
         <f>ABS(MIN(B32:K32))</f>
         <v>10.500000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="80" t="s">
+      <c r="A36" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="80"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
       <c r="M36" s="19">
         <f>IF(D28&gt;0, I28/D28, "-")</f>
         <v>400</v>
@@ -3928,19 +5561,19 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="80" t="s">
+      <c r="A40" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="J40" s="80" t="s">
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="J40" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
       <c r="M40" s="1">
         <f>D29</f>
         <v>5.5</v>
@@ -4183,56 +5816,56 @@
       <c r="K47"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="80" t="s">
+      <c r="A49" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="80"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="80"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="80"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="82"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="80" t="s">
+      <c r="A50" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="80"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
       <c r="M50" s="1">
         <f>ABS(MIN(B47:K47))</f>
         <v>3.2727272727272716</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="80" t="s">
+      <c r="A51" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="80"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
-      <c r="K51" s="80"/>
-      <c r="L51" s="80"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
       <c r="M51" s="28">
         <f>IF(B43&gt;0, I43/B43, "-")</f>
         <v>144.44444444444446</v>
@@ -4257,19 +5890,19 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="80" t="s">
+      <c r="A55" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="J55" s="80" t="s">
+      <c r="B55" s="82"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="J55" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="K55" s="80"/>
-      <c r="L55" s="80"/>
+      <c r="K55" s="82"/>
+      <c r="L55" s="82"/>
       <c r="M55" s="1">
         <f>B43</f>
         <v>2.4545454545454546</v>
@@ -4615,7 +6248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
@@ -4654,7 +6287,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="31">
@@ -4672,7 +6305,7 @@
       <c r="F2" s="32">
         <v>1</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="80" t="s">
         <v>47</v>
       </c>
       <c r="J2" s="31">
@@ -4689,7 +6322,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="31">
         <v>16</v>
       </c>
@@ -4705,7 +6338,7 @@
       <c r="F3" s="32">
         <v>1</v>
       </c>
-      <c r="I3" s="78"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="31">
         <v>1</v>
       </c>
@@ -4800,20 +6433,20 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
@@ -5011,56 +6644,56 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
       <c r="M20" s="1">
         <f>ABS(MIN(B17:I17))</f>
         <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
       <c r="M21" s="19" t="str">
         <f>IF(E13&gt;0, I13/E13, "-")</f>
         <v>-</v>
@@ -5085,19 +6718,19 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="80" t="s">
+      <c r="A25" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="J25" s="80" t="s">
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="J25" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
       <c r="M25" s="1">
         <f>E15</f>
         <v>2</v>
@@ -5340,56 +6973,56 @@
       <c r="K32"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="80" t="s">
+      <c r="A34" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="80" t="s">
+      <c r="A35" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
       <c r="M35" s="1">
         <f>ABS(MIN(B32:K32))</f>
         <v>10.500000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="80" t="s">
+      <c r="A36" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="80"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
       <c r="M36" s="19">
         <f>IF(D28&gt;0, I28/D28, "-")</f>
         <v>400</v>
@@ -5414,19 +7047,19 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="80" t="s">
+      <c r="A40" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="J40" s="80" t="s">
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="J40" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
       <c r="M40" s="1">
         <f>D29</f>
         <v>5.5</v>
@@ -5669,56 +7302,56 @@
       <c r="K47"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="80" t="s">
+      <c r="A49" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="80"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="80"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="80"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="82"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="80" t="s">
+      <c r="A50" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="80"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
       <c r="M50" s="1">
         <f>ABS(MIN(B47:K47))</f>
         <v>3.2727272727272716</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="80" t="s">
+      <c r="A51" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="80"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
-      <c r="K51" s="80"/>
-      <c r="L51" s="80"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
       <c r="M51" s="28">
         <f>IF(B43&gt;0, I43/B43, "-")</f>
         <v>144.44444444444446</v>
@@ -5743,19 +7376,19 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="80" t="s">
+      <c r="A55" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="J55" s="80" t="s">
+      <c r="B55" s="82"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="J55" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="K55" s="80"/>
-      <c r="L55" s="80"/>
+      <c r="K55" s="82"/>
+      <c r="L55" s="82"/>
       <c r="M55" s="1">
         <f>B43</f>
         <v>2.4545454545454546</v>
@@ -6078,11 +7711,6 @@
     <mergeCell ref="A51:L51"/>
     <mergeCell ref="A55:F55"/>
     <mergeCell ref="J55:L55"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="A36:L36"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="J40:L40"/>
     <mergeCell ref="A2:A3"/>
@@ -6091,8 +7719,3047 @@
     <mergeCell ref="A19:L19"/>
     <mergeCell ref="A20:L20"/>
     <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A36:L36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="78">
+        <v>0</v>
+      </c>
+      <c r="B2" s="78">
+        <v>0</v>
+      </c>
+      <c r="C2" s="78">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>175.27472526921099</v>
+      </c>
+      <c r="E2" s="79">
+        <v>2.60219223946478E-9</v>
+      </c>
+      <c r="F2">
+        <v>224.72527472818601</v>
+      </c>
+      <c r="G2" s="79">
+        <v>9.9157659860793501E-10</v>
+      </c>
+      <c r="H2">
+        <v>249.999999999008</v>
+      </c>
+      <c r="I2">
+        <v>789.01098902843398</v>
+      </c>
+      <c r="J2">
+        <v>58.241758228271998</v>
+      </c>
+      <c r="K2">
+        <v>-570000.00000007998</v>
+      </c>
+      <c r="L2" s="1">
+        <v>789.01098902843398</v>
+      </c>
+      <c r="M2" s="1">
+        <v>58.241758228271998</v>
+      </c>
+      <c r="N2" s="79">
+        <v>7.1721217371049801E-7</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="78">
+        <v>0</v>
+      </c>
+      <c r="B3" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="78">
+        <v>0.9</v>
+      </c>
+      <c r="D3">
+        <v>175.27472526641</v>
+      </c>
+      <c r="E3" s="79">
+        <v>3.9229348658409402E-9</v>
+      </c>
+      <c r="F3">
+        <v>224.72527472966601</v>
+      </c>
+      <c r="G3" s="79">
+        <v>1.4979661955294399E-9</v>
+      </c>
+      <c r="H3">
+        <v>249.99999999850201</v>
+      </c>
+      <c r="I3">
+        <v>789.01098903729803</v>
+      </c>
+      <c r="J3">
+        <v>58.241758221420397</v>
+      </c>
+      <c r="K3">
+        <v>-570000.00000012096</v>
+      </c>
+      <c r="L3" s="1">
+        <v>789.01098903729803</v>
+      </c>
+      <c r="M3" s="1">
+        <v>58.241758221420397</v>
+      </c>
+      <c r="N3" s="79">
+        <v>6.46986255301044E-7</v>
+      </c>
+      <c r="P3">
+        <v>450</v>
+      </c>
+      <c r="Q3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="78">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="D4">
+        <v>175.27472527552001</v>
+      </c>
+      <c r="E4" s="79">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>224.725274724852</v>
+      </c>
+      <c r="G4" s="79">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>250.00000000014799</v>
+      </c>
+      <c r="I4">
+        <v>789.01098900847001</v>
+      </c>
+      <c r="J4">
+        <v>58.241758243703899</v>
+      </c>
+      <c r="K4">
+        <v>-569999.99999998801</v>
+      </c>
+      <c r="L4" s="1">
+        <v>789.01098900847001</v>
+      </c>
+      <c r="M4" s="1">
+        <v>58.241758243703899</v>
+      </c>
+      <c r="N4" s="79">
+        <v>5.7634392233024202E-7</v>
+      </c>
+      <c r="P4">
+        <v>900</v>
+      </c>
+      <c r="Q4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="78">
+        <v>0</v>
+      </c>
+      <c r="B5" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="78">
+        <v>0.7</v>
+      </c>
+      <c r="D5">
+        <v>175.274725274003</v>
+      </c>
+      <c r="E5" s="79">
+        <v>3.3789149256335799E-10</v>
+      </c>
+      <c r="F5">
+        <v>224.72527472565801</v>
+      </c>
+      <c r="G5" s="79">
+        <v>1.36338940137648E-10</v>
+      </c>
+      <c r="H5">
+        <v>249.99999999986301</v>
+      </c>
+      <c r="I5">
+        <v>789.01098901327703</v>
+      </c>
+      <c r="J5">
+        <v>58.241758239992102</v>
+      </c>
+      <c r="K5">
+        <v>-570000.00000001001</v>
+      </c>
+      <c r="L5" s="1">
+        <v>789.01098901327703</v>
+      </c>
+      <c r="M5" s="1">
+        <v>58.241758239992102</v>
+      </c>
+      <c r="N5" s="79">
+        <v>5.0608506141661403E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="78">
+        <v>0</v>
+      </c>
+      <c r="B6" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="C6" s="78">
+        <v>0.6</v>
+      </c>
+      <c r="D6">
+        <v>175.27472526860501</v>
+      </c>
+      <c r="E6" s="79">
+        <v>2.8847182420577102E-9</v>
+      </c>
+      <c r="F6">
+        <v>224.72527472850999</v>
+      </c>
+      <c r="G6" s="79">
+        <v>1.10910036710265E-9</v>
+      </c>
+      <c r="H6">
+        <v>249.99999999889101</v>
+      </c>
+      <c r="I6">
+        <v>789.01098903035802</v>
+      </c>
+      <c r="J6">
+        <v>58.241758226787503</v>
+      </c>
+      <c r="K6">
+        <v>-570000.00000008801</v>
+      </c>
+      <c r="L6" s="1">
+        <v>789.01098903035802</v>
+      </c>
+      <c r="M6" s="1">
+        <v>58.241758226787503</v>
+      </c>
+      <c r="N6" s="79">
+        <v>4.3590380744854299E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="78">
+        <v>0</v>
+      </c>
+      <c r="B7" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>175.274725269057</v>
+      </c>
+      <c r="E7" s="79">
+        <v>2.6744544356915801E-9</v>
+      </c>
+      <c r="F7">
+        <v>224.725274728268</v>
+      </c>
+      <c r="G7" s="79">
+        <v>1.0203109468420699E-9</v>
+      </c>
+      <c r="H7">
+        <v>249.99999999897901</v>
+      </c>
+      <c r="I7">
+        <v>789.01098902892204</v>
+      </c>
+      <c r="J7">
+        <v>58.241758227894699</v>
+      </c>
+      <c r="K7">
+        <v>-570000.00000008196</v>
+      </c>
+      <c r="L7" s="1">
+        <v>789.01098902892204</v>
+      </c>
+      <c r="M7" s="1">
+        <v>58.241758227894699</v>
+      </c>
+      <c r="N7" s="79">
+        <v>3.6556174888980799E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="78">
+        <v>0</v>
+      </c>
+      <c r="B8" s="78">
+        <v>0.6</v>
+      </c>
+      <c r="C8" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="D8">
+        <v>175.27472527234701</v>
+      </c>
+      <c r="E8" s="79">
+        <v>1.1204264183106699E-9</v>
+      </c>
+      <c r="F8">
+        <v>224.72527472653201</v>
+      </c>
+      <c r="G8" s="79">
+        <v>4.3178260966669701E-10</v>
+      </c>
+      <c r="H8">
+        <v>249.99999999956799</v>
+      </c>
+      <c r="I8">
+        <v>789.01098901851401</v>
+      </c>
+      <c r="J8">
+        <v>58.2417582359421</v>
+      </c>
+      <c r="K8">
+        <v>-570000.00000003399</v>
+      </c>
+      <c r="L8" s="1">
+        <v>789.01098901851401</v>
+      </c>
+      <c r="M8" s="1">
+        <v>58.2417582359421</v>
+      </c>
+      <c r="N8" s="79">
+        <v>2.9518301483167402E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="78">
+        <v>0</v>
+      </c>
+      <c r="B9" s="78">
+        <v>0.7</v>
+      </c>
+      <c r="C9" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="D9">
+        <v>175.27472528091599</v>
+      </c>
+      <c r="E9" s="79">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>224.72527472200099</v>
+      </c>
+      <c r="G9" s="79">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>250.00000000112101</v>
+      </c>
+      <c r="I9">
+        <v>789.01098899139299</v>
+      </c>
+      <c r="J9">
+        <v>58.241758256904397</v>
+      </c>
+      <c r="K9">
+        <v>-569999.99999991001</v>
+      </c>
+      <c r="L9" s="1">
+        <v>789.01098899139299</v>
+      </c>
+      <c r="M9" s="1">
+        <v>58.241758256904397</v>
+      </c>
+      <c r="N9" s="79">
+        <v>2.2478285638902401E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="78">
+        <v>0</v>
+      </c>
+      <c r="B10" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="D10">
+        <v>175.27472526021799</v>
+      </c>
+      <c r="E10" s="79">
+        <v>6.8446297518676097E-9</v>
+      </c>
+      <c r="F10">
+        <v>224.72527473293701</v>
+      </c>
+      <c r="G10" s="79">
+        <v>2.6133477604162098E-9</v>
+      </c>
+      <c r="H10">
+        <v>249.999999997386</v>
+      </c>
+      <c r="I10">
+        <v>789.01098905689196</v>
+      </c>
+      <c r="J10">
+        <v>58.241758206273502</v>
+      </c>
+      <c r="K10">
+        <v>-570000.00000021094</v>
+      </c>
+      <c r="L10" s="1">
+        <v>789.01098905689196</v>
+      </c>
+      <c r="M10" s="1">
+        <v>58.241758206273502</v>
+      </c>
+      <c r="N10" s="79">
+        <v>1.54613495478788E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="78">
+        <v>0</v>
+      </c>
+      <c r="B11" s="78">
+        <v>0.9</v>
+      </c>
+      <c r="C11" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <v>175.27472527401599</v>
+      </c>
+      <c r="E11" s="79">
+        <v>3.3401192922610702E-10</v>
+      </c>
+      <c r="F11">
+        <v>224.725274725649</v>
+      </c>
+      <c r="G11" s="79">
+        <v>1.28949295685742E-10</v>
+      </c>
+      <c r="H11">
+        <v>249.99999999987099</v>
+      </c>
+      <c r="I11">
+        <v>789.01098901323201</v>
+      </c>
+      <c r="J11">
+        <v>58.241758240024403</v>
+      </c>
+      <c r="K11">
+        <v>-570000.00000001001</v>
+      </c>
+      <c r="L11" s="1">
+        <v>789.01098901323201</v>
+      </c>
+      <c r="M11" s="1">
+        <v>58.241758240024403</v>
+      </c>
+      <c r="N11" s="79">
+        <v>8.4233298128458403E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="78">
+        <v>0</v>
+      </c>
+      <c r="B12" s="78">
+        <v>1</v>
+      </c>
+      <c r="C12" s="78">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>151.76552999226701</v>
+      </c>
+      <c r="E12" s="79">
+        <v>8.4040180726823408</v>
+      </c>
+      <c r="F12">
+        <v>239.83045193504901</v>
+      </c>
+      <c r="G12" s="79">
+        <v>10.3105998453567</v>
+      </c>
+      <c r="H12">
+        <v>239.68940015464301</v>
+      </c>
+      <c r="I12">
+        <v>867.30219392422396</v>
+      </c>
+      <c r="J12" s="79">
+        <v>7.1054273576010003E-15</v>
+      </c>
+      <c r="K12">
+        <v>-569904.670911366</v>
+      </c>
+      <c r="L12" s="1">
+        <v>867.30219392422396</v>
+      </c>
+      <c r="M12" s="1">
+        <v>7.1054273576010003E-15</v>
+      </c>
+      <c r="N12" s="79">
+        <v>-9.9226999274059396E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="B13" s="78">
+        <v>0</v>
+      </c>
+      <c r="C13" s="78">
+        <v>0.9</v>
+      </c>
+      <c r="D13">
+        <v>175.27472528028801</v>
+      </c>
+      <c r="E13" s="79">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>224.725274722336</v>
+      </c>
+      <c r="G13" s="79">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>250.00000000100101</v>
+      </c>
+      <c r="I13">
+        <v>789.01098899338604</v>
+      </c>
+      <c r="J13">
+        <v>58.241758255366697</v>
+      </c>
+      <c r="K13">
+        <v>-569999.99999991804</v>
+      </c>
+      <c r="L13" s="1">
+        <v>789.01098899338604</v>
+      </c>
+      <c r="M13" s="1">
+        <v>58.241758255366697</v>
+      </c>
+      <c r="N13" s="79">
+        <v>6.4507225214619599E-7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="B14" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="D14">
+        <v>175.274725266443</v>
+      </c>
+      <c r="E14" s="79">
+        <v>3.9117225014706401E-9</v>
+      </c>
+      <c r="F14">
+        <v>224.72527472964401</v>
+      </c>
+      <c r="G14" s="79">
+        <v>1.4826753158558801E-9</v>
+      </c>
+      <c r="H14">
+        <v>249.99999999851701</v>
+      </c>
+      <c r="I14">
+        <v>789.01098903718798</v>
+      </c>
+      <c r="J14">
+        <v>58.241758221501399</v>
+      </c>
+      <c r="K14">
+        <v>-570000.00000012096</v>
+      </c>
+      <c r="L14" s="1">
+        <v>789.01098903718798</v>
+      </c>
+      <c r="M14" s="1">
+        <v>58.241758221501399</v>
+      </c>
+      <c r="N14" s="79">
+        <v>5.7525219724980002E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="B15" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="78">
+        <v>0.7</v>
+      </c>
+      <c r="D15">
+        <v>175.27472527611599</v>
+      </c>
+      <c r="E15" s="79">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>224.72527472454499</v>
+      </c>
+      <c r="G15" s="79">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>250.000000000238</v>
+      </c>
+      <c r="I15">
+        <v>789.01098900659395</v>
+      </c>
+      <c r="J15">
+        <v>58.241758245159801</v>
+      </c>
+      <c r="K15">
+        <v>-569999.999999978</v>
+      </c>
+      <c r="L15" s="1">
+        <v>789.01098900659395</v>
+      </c>
+      <c r="M15" s="1">
+        <v>58.241758245159801</v>
+      </c>
+      <c r="N15" s="79">
+        <v>5.0463217477599E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="B16" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="C16" s="78">
+        <v>0.6</v>
+      </c>
+      <c r="D16">
+        <v>175.274725262168</v>
+      </c>
+      <c r="E16" s="79">
+        <v>5.9251590300846097E-9</v>
+      </c>
+      <c r="F16">
+        <v>224.72527473190601</v>
+      </c>
+      <c r="G16" s="79">
+        <v>2.26103225031693E-9</v>
+      </c>
+      <c r="H16">
+        <v>249.999999997738</v>
+      </c>
+      <c r="I16">
+        <v>789.01098905072195</v>
+      </c>
+      <c r="J16">
+        <v>58.241758211042502</v>
+      </c>
+      <c r="K16">
+        <v>-570000.000000183</v>
+      </c>
+      <c r="L16" s="1">
+        <v>789.01098905072195</v>
+      </c>
+      <c r="M16" s="1">
+        <v>58.241758211042502</v>
+      </c>
+      <c r="N16" s="79">
+        <v>4.34667997464102E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="B17" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="C17" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="D17">
+        <v>175.274725266199</v>
+      </c>
+      <c r="E17" s="79">
+        <v>4.0225245356850701E-9</v>
+      </c>
+      <c r="F17">
+        <v>224.72527472977799</v>
+      </c>
+      <c r="G17" s="79">
+        <v>1.5361649730039E-9</v>
+      </c>
+      <c r="H17">
+        <v>249.99999999846301</v>
+      </c>
+      <c r="I17">
+        <v>789.01098903796606</v>
+      </c>
+      <c r="J17">
+        <v>58.241758220903698</v>
+      </c>
+      <c r="K17">
+        <v>-570000.00000012398</v>
+      </c>
+      <c r="L17" s="1">
+        <v>789.01098903796606</v>
+      </c>
+      <c r="M17" s="1">
+        <v>58.241758220903698</v>
+      </c>
+      <c r="N17" s="79">
+        <v>3.6422671815290801E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="B18" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="D18">
+        <v>175.27472527758701</v>
+      </c>
+      <c r="E18" s="79">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>224.72527472376399</v>
+      </c>
+      <c r="G18" s="79">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>250.00000000051301</v>
+      </c>
+      <c r="I18">
+        <v>789.01098900193404</v>
+      </c>
+      <c r="J18">
+        <v>58.2417582487587</v>
+      </c>
+      <c r="K18">
+        <v>-569999.99999995797</v>
+      </c>
+      <c r="L18" s="1">
+        <v>789.01098900193404</v>
+      </c>
+      <c r="M18" s="1">
+        <v>58.2417582487587</v>
+      </c>
+      <c r="N18" s="79">
+        <v>2.93713686590456E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="B19" s="78">
+        <v>0.6</v>
+      </c>
+      <c r="C19" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="D19">
+        <v>175.27472526360901</v>
+      </c>
+      <c r="E19" s="79">
+        <v>5.2450985776886203E-9</v>
+      </c>
+      <c r="F19">
+        <v>224.72527473114499</v>
+      </c>
+      <c r="G19" s="79">
+        <v>2.0016557300550601E-9</v>
+      </c>
+      <c r="H19">
+        <v>249.999999997998</v>
+      </c>
+      <c r="I19">
+        <v>789.01098904616197</v>
+      </c>
+      <c r="J19">
+        <v>58.241758214567902</v>
+      </c>
+      <c r="K19">
+        <v>-570000.00000016205</v>
+      </c>
+      <c r="L19" s="1">
+        <v>789.01098904616197</v>
+      </c>
+      <c r="M19" s="1">
+        <v>58.241758214567902</v>
+      </c>
+      <c r="N19" s="79">
+        <v>2.23564067764749E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="B20" s="78">
+        <v>0.7</v>
+      </c>
+      <c r="C20" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="D20">
+        <v>175.27472527607301</v>
+      </c>
+      <c r="E20" s="79">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>224.725274724559</v>
+      </c>
+      <c r="G20" s="79">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>250.00000000025</v>
+      </c>
+      <c r="I20">
+        <v>789.01098900672002</v>
+      </c>
+      <c r="J20">
+        <v>58.241758245055699</v>
+      </c>
+      <c r="K20">
+        <v>-569999.99999997998</v>
+      </c>
+      <c r="L20" s="1">
+        <v>789.01098900672002</v>
+      </c>
+      <c r="M20" s="1">
+        <v>58.241758245055699</v>
+      </c>
+      <c r="N20" s="79">
+        <v>1.5313788746941901E-7</v>
+      </c>
+      <c r="P20">
+        <f>I20*150+200*J20</f>
+        <v>130000.00000001914</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="B21" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="C21" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="D21">
+        <v>175.274725279249</v>
+      </c>
+      <c r="E21" s="79">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>224.72527472288499</v>
+      </c>
+      <c r="G21" s="79">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>250.00000000081499</v>
+      </c>
+      <c r="I21">
+        <v>789.01098899667397</v>
+      </c>
+      <c r="J21">
+        <v>58.2417582528239</v>
+      </c>
+      <c r="K21">
+        <v>-569999.99999993399</v>
+      </c>
+      <c r="L21" s="1">
+        <v>789.01098899667397</v>
+      </c>
+      <c r="M21" s="1">
+        <v>58.2417582528239</v>
+      </c>
+      <c r="N21" s="79">
+        <v>8.2835625387706506E-8</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ref="P21:P22" si="0">I21*150+200*J21</f>
+        <v>130000.00000006588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="B22" s="78">
+        <v>0.9</v>
+      </c>
+      <c r="C22" s="78">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>151.78880869762</v>
+      </c>
+      <c r="E22" s="79">
+        <v>8.1851982423682799</v>
+      </c>
+      <c r="F22">
+        <v>240.02599306001099</v>
+      </c>
+      <c r="G22" s="79">
+        <v>10.7761739524079</v>
+      </c>
+      <c r="H22">
+        <v>239.22382604759201</v>
+      </c>
+      <c r="I22">
+        <v>867.530325236679</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>-569870.45121449803</v>
+      </c>
+      <c r="L22" s="1">
+        <v>867.530325236679</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>-8.9587249407517305E-2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>130129.54878550184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="B23" s="78">
+        <v>0</v>
+      </c>
+      <c r="C23" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="D23">
+        <v>175.274725266215</v>
+      </c>
+      <c r="E23" s="79">
+        <v>4.0121932443071199E-9</v>
+      </c>
+      <c r="F23">
+        <v>224.725274729772</v>
+      </c>
+      <c r="G23" s="79">
+        <v>1.5400445363411499E-9</v>
+      </c>
+      <c r="H23">
+        <v>249.99999999846</v>
+      </c>
+      <c r="I23">
+        <v>789.01098903792104</v>
+      </c>
+      <c r="J23">
+        <v>58.2417582209413</v>
+      </c>
+      <c r="K23">
+        <v>-570000.00000012305</v>
+      </c>
+      <c r="L23" s="1">
+        <v>789.01098903792104</v>
+      </c>
+      <c r="M23" s="1">
+        <v>58.2417582209413</v>
+      </c>
+      <c r="N23" s="79">
+        <v>5.7387047560058899E-7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="B24" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="78">
+        <v>0.7</v>
+      </c>
+      <c r="D24">
+        <v>175.274725276776</v>
+      </c>
+      <c r="E24" s="79">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>224.725274724191</v>
+      </c>
+      <c r="G24" s="79">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>250.000000000369</v>
+      </c>
+      <c r="I24">
+        <v>789.01098900449801</v>
+      </c>
+      <c r="J24">
+        <v>58.2417582467762</v>
+      </c>
+      <c r="K24">
+        <v>-569999.99999996996</v>
+      </c>
+      <c r="L24" s="1">
+        <v>789.01098900449801</v>
+      </c>
+      <c r="M24" s="1">
+        <v>58.2417582467762</v>
+      </c>
+      <c r="N24" s="79">
+        <v>5.0321969126708195E-7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="B25" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="C25" s="78">
+        <v>0.6</v>
+      </c>
+      <c r="D25">
+        <v>175.274725272757</v>
+      </c>
+      <c r="E25" s="79">
+        <v>9.3102414666645896E-10</v>
+      </c>
+      <c r="F25">
+        <v>224.725274726311</v>
+      </c>
+      <c r="G25" s="79">
+        <v>3.48435946762037E-10</v>
+      </c>
+      <c r="H25">
+        <v>249.99999999965101</v>
+      </c>
+      <c r="I25">
+        <v>789.01098901721105</v>
+      </c>
+      <c r="J25">
+        <v>58.241758236946303</v>
+      </c>
+      <c r="K25">
+        <v>-570000.00000002899</v>
+      </c>
+      <c r="L25" s="1">
+        <v>789.01098901721105</v>
+      </c>
+      <c r="M25" s="1">
+        <v>58.241758236946303</v>
+      </c>
+      <c r="N25" s="79">
+        <v>4.3302189099110099E-7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="B26" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="C26" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="D26">
+        <v>175.27472528529199</v>
+      </c>
+      <c r="E26" s="79">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>224.72527471969201</v>
+      </c>
+      <c r="G26" s="79">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>250.00000000190599</v>
+      </c>
+      <c r="I26">
+        <v>789.01098897755003</v>
+      </c>
+      <c r="J26">
+        <v>58.241758267606997</v>
+      </c>
+      <c r="K26">
+        <v>-569999.99999984598</v>
+      </c>
+      <c r="L26" s="1">
+        <v>789.01098897755003</v>
+      </c>
+      <c r="M26" s="1">
+        <v>58.241758267606997</v>
+      </c>
+      <c r="N26" s="79">
+        <v>3.6245933255515899E-7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="B27" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="C27" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="D27">
+        <v>175.274725285242</v>
+      </c>
+      <c r="E27" s="79">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>224.72527471972001</v>
+      </c>
+      <c r="G27" s="79">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>250.00000000189399</v>
+      </c>
+      <c r="I27">
+        <v>789.01098897770999</v>
+      </c>
+      <c r="J27">
+        <v>58.2417582674843</v>
+      </c>
+      <c r="K27">
+        <v>-569999.99999984598</v>
+      </c>
+      <c r="L27" s="1">
+        <v>789.01098897770999</v>
+      </c>
+      <c r="M27" s="1">
+        <v>58.2417582674843</v>
+      </c>
+      <c r="N27" s="79">
+        <v>2.9220341009362702E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="B28" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="D28">
+        <v>175.27472526682701</v>
+      </c>
+      <c r="E28" s="79">
+        <v>3.7258161000863699E-9</v>
+      </c>
+      <c r="F28">
+        <v>224.725274729446</v>
+      </c>
+      <c r="G28" s="79">
+        <v>1.4241123835745299E-9</v>
+      </c>
+      <c r="H28">
+        <v>249.99999999857599</v>
+      </c>
+      <c r="I28">
+        <v>789.01098903597995</v>
+      </c>
+      <c r="J28">
+        <v>58.241758222439501</v>
+      </c>
+      <c r="K28">
+        <v>-570000.00000011502</v>
+      </c>
+      <c r="L28" s="1">
+        <v>789.01098903597995</v>
+      </c>
+      <c r="M28" s="1">
+        <v>58.241758222439501</v>
+      </c>
+      <c r="N28" s="79">
+        <v>2.2214168637556401E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="B29" s="78">
+        <v>0.6</v>
+      </c>
+      <c r="C29" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="D29">
+        <v>175.27472526931899</v>
+      </c>
+      <c r="E29" s="79">
+        <v>2.5499389266769801E-9</v>
+      </c>
+      <c r="F29">
+        <v>224.72527472812999</v>
+      </c>
+      <c r="G29" s="79">
+        <v>9.7551833277975592E-10</v>
+      </c>
+      <c r="H29">
+        <v>249.999999999024</v>
+      </c>
+      <c r="I29">
+        <v>789.01098902809497</v>
+      </c>
+      <c r="J29">
+        <v>58.2417582285346</v>
+      </c>
+      <c r="K29">
+        <v>-570000.000000078</v>
+      </c>
+      <c r="L29" s="1">
+        <v>789.01098902809497</v>
+      </c>
+      <c r="M29" s="1">
+        <v>58.2417582285346</v>
+      </c>
+      <c r="N29" s="79">
+        <v>1.5178509731533799E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="B30" s="78">
+        <v>0.7</v>
+      </c>
+      <c r="C30" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="D30">
+        <v>175.274725276884</v>
+      </c>
+      <c r="E30" s="79">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>224.725274724126</v>
+      </c>
+      <c r="G30" s="79">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>250.00000000040799</v>
+      </c>
+      <c r="I30">
+        <v>789.01098900414604</v>
+      </c>
+      <c r="J30">
+        <v>58.241758247041098</v>
+      </c>
+      <c r="K30">
+        <v>-569999.99999996903</v>
+      </c>
+      <c r="L30" s="1">
+        <v>789.01098900414604</v>
+      </c>
+      <c r="M30" s="1">
+        <v>58.241758247041098</v>
+      </c>
+      <c r="N30" s="79">
+        <v>8.1444354947720506E-8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="B31" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="C31" s="78">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>175.27472527308799</v>
+      </c>
+      <c r="E31" s="79">
+        <v>7.7629636052733903E-10</v>
+      </c>
+      <c r="F31">
+        <v>224.72527472613399</v>
+      </c>
+      <c r="G31" s="79">
+        <v>2.8551028208312299E-10</v>
+      </c>
+      <c r="H31">
+        <v>249.99999999971399</v>
+      </c>
+      <c r="I31">
+        <v>789.01098901616103</v>
+      </c>
+      <c r="J31">
+        <v>58.241758237756898</v>
+      </c>
+      <c r="K31">
+        <v>-570000.00000002398</v>
+      </c>
+      <c r="L31" s="1">
+        <v>789.01098901616103</v>
+      </c>
+      <c r="M31" s="1">
+        <v>58.241758237756898</v>
+      </c>
+      <c r="N31" s="79">
+        <v>1.11368256215077E-8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="B32" s="78">
+        <v>0</v>
+      </c>
+      <c r="C32" s="78">
+        <v>0.7</v>
+      </c>
+      <c r="D32">
+        <v>175.27472526589699</v>
+      </c>
+      <c r="E32" s="79">
+        <v>4.1657273186501698E-9</v>
+      </c>
+      <c r="F32">
+        <v>224.72527472993599</v>
+      </c>
+      <c r="G32" s="79">
+        <v>1.5884324966464101E-9</v>
+      </c>
+      <c r="H32">
+        <v>249.999999998411</v>
+      </c>
+      <c r="I32">
+        <v>789.01098903891898</v>
+      </c>
+      <c r="J32">
+        <v>58.241758220166297</v>
+      </c>
+      <c r="K32">
+        <v>-570000.00000012806</v>
+      </c>
+      <c r="L32" s="1">
+        <v>789.01098903891898</v>
+      </c>
+      <c r="M32" s="1">
+        <v>58.241758220166297</v>
+      </c>
+      <c r="N32" s="79">
+        <v>5.0214601024111297E-7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="B33" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="C33" s="78">
+        <v>0.6</v>
+      </c>
+      <c r="D33">
+        <v>175.274725266882</v>
+      </c>
+      <c r="E33" s="79">
+        <v>3.7031497868156198E-9</v>
+      </c>
+      <c r="F33">
+        <v>224.725274729414</v>
+      </c>
+      <c r="G33" s="79">
+        <v>1.4068319842408501E-9</v>
+      </c>
+      <c r="H33">
+        <v>249.99999999859301</v>
+      </c>
+      <c r="I33">
+        <v>789.01098903580203</v>
+      </c>
+      <c r="J33">
+        <v>58.241758222574802</v>
+      </c>
+      <c r="K33">
+        <v>-570000.00000011397</v>
+      </c>
+      <c r="L33" s="1">
+        <v>789.01098903580203</v>
+      </c>
+      <c r="M33" s="1">
+        <v>58.241758222574802</v>
+      </c>
+      <c r="N33" s="79">
+        <v>4.3177566872936999E-7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="B34" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="C34" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="D34">
+        <v>175.274725270868</v>
+      </c>
+      <c r="E34" s="79">
+        <v>1.8253842881676899E-9</v>
+      </c>
+      <c r="F34">
+        <v>224.72527472730599</v>
+      </c>
+      <c r="G34" s="79">
+        <v>6.8276051479187996E-10</v>
+      </c>
+      <c r="H34">
+        <v>249.999999999317</v>
+      </c>
+      <c r="I34">
+        <v>789.01098902318699</v>
+      </c>
+      <c r="J34">
+        <v>58.241758232324401</v>
+      </c>
+      <c r="K34">
+        <v>-570000.00000005704</v>
+      </c>
+      <c r="L34" s="1">
+        <v>789.01098902318699</v>
+      </c>
+      <c r="M34" s="1">
+        <v>58.241758232324401</v>
+      </c>
+      <c r="N34" s="79">
+        <v>3.6135375012874301E-7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="B35" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="C35" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="D35">
+        <v>175.27472527232101</v>
+      </c>
+      <c r="E35" s="79">
+        <v>1.1364846841388399E-9</v>
+      </c>
+      <c r="F35">
+        <v>224.72527472654201</v>
+      </c>
+      <c r="G35" s="79">
+        <v>4.2814463085960499E-10</v>
+      </c>
+      <c r="H35">
+        <v>249.999999999572</v>
+      </c>
+      <c r="I35">
+        <v>789.010989018592</v>
+      </c>
+      <c r="J35">
+        <v>58.241758235878997</v>
+      </c>
+      <c r="K35">
+        <v>-570000.00000003504</v>
+      </c>
+      <c r="L35" s="1">
+        <v>789.010989018592</v>
+      </c>
+      <c r="M35" s="1">
+        <v>58.241758235878997</v>
+      </c>
+      <c r="N35" s="79">
+        <v>2.9100802567865698E-7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="B36" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="C36" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="D36">
+        <v>175.27472528235</v>
+      </c>
+      <c r="E36" s="79">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>224.725274721245</v>
+      </c>
+      <c r="G36" s="79">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>250.000000001377</v>
+      </c>
+      <c r="I36">
+        <v>789.01098898685905</v>
+      </c>
+      <c r="J36">
+        <v>58.241758260410599</v>
+      </c>
+      <c r="K36">
+        <v>-569999.99999988801</v>
+      </c>
+      <c r="L36" s="1">
+        <v>789.01098898685905</v>
+      </c>
+      <c r="M36" s="1">
+        <v>58.241758260410599</v>
+      </c>
+      <c r="N36" s="79">
+        <v>2.2058131277606199E-7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="B37" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="C37" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="D37">
+        <v>175.274725284515</v>
+      </c>
+      <c r="E37" s="79">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>224.72527472010501</v>
+      </c>
+      <c r="G37" s="79">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>250.00000000175899</v>
+      </c>
+      <c r="I37">
+        <v>789.01098898001203</v>
+      </c>
+      <c r="J37">
+        <v>58.241758265706302</v>
+      </c>
+      <c r="K37">
+        <v>-569999.99999985599</v>
+      </c>
+      <c r="L37" s="1">
+        <v>789.01098898001203</v>
+      </c>
+      <c r="M37" s="1">
+        <v>58.241758265706302</v>
+      </c>
+      <c r="N37" s="79">
+        <v>1.50297229747734E-7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="B38" s="78">
+        <v>0.6</v>
+      </c>
+      <c r="C38" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="D38">
+        <v>175.27472526420399</v>
+      </c>
+      <c r="E38" s="79">
+        <v>4.9646615707388198E-9</v>
+      </c>
+      <c r="F38">
+        <v>224.72527473082999</v>
+      </c>
+      <c r="G38" s="79">
+        <v>1.8936390233648101E-9</v>
+      </c>
+      <c r="H38">
+        <v>249.99999999810601</v>
+      </c>
+      <c r="I38">
+        <v>789.01098904427704</v>
+      </c>
+      <c r="J38">
+        <v>58.241758216024103</v>
+      </c>
+      <c r="K38">
+        <v>-570000.00000015297</v>
+      </c>
+      <c r="L38" s="1">
+        <v>789.01098904427704</v>
+      </c>
+      <c r="M38" s="1">
+        <v>58.241758216024103</v>
+      </c>
+      <c r="N38" s="79">
+        <v>8.0073558977568802E-8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="B39" s="78">
+        <v>0.7</v>
+      </c>
+      <c r="C39" s="78">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>175.274725268911</v>
+      </c>
+      <c r="E39" s="79">
+        <v>2.7440449912319301E-9</v>
+      </c>
+      <c r="F39">
+        <v>224.725274728345</v>
+      </c>
+      <c r="G39" s="79">
+        <v>1.0458336419105701E-9</v>
+      </c>
+      <c r="H39">
+        <v>249.999999998954</v>
+      </c>
+      <c r="I39">
+        <v>789.010989029386</v>
+      </c>
+      <c r="J39">
+        <v>58.241758227536302</v>
+      </c>
+      <c r="K39">
+        <v>-570000.00000008405</v>
+      </c>
+      <c r="L39" s="1">
+        <v>789.010989029386</v>
+      </c>
+      <c r="M39" s="1">
+        <v>58.241758227536302</v>
+      </c>
+      <c r="N39" s="79">
+        <v>9.7330265429046494E-9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="B40" s="78">
+        <v>0</v>
+      </c>
+      <c r="C40" s="78">
+        <v>0.6</v>
+      </c>
+      <c r="D40">
+        <v>175.27472526920201</v>
+      </c>
+      <c r="E40" s="79">
+        <v>2.60867238921491E-9</v>
+      </c>
+      <c r="F40">
+        <v>224.725274728188</v>
+      </c>
+      <c r="G40" s="79">
+        <v>9.880949392027099E-10</v>
+      </c>
+      <c r="H40">
+        <v>249.999999999012</v>
+      </c>
+      <c r="I40">
+        <v>789.01098902845899</v>
+      </c>
+      <c r="J40">
+        <v>58.241758228250703</v>
+      </c>
+      <c r="K40">
+        <v>-570000.00000008103</v>
+      </c>
+      <c r="L40" s="1">
+        <v>789.01098902845899</v>
+      </c>
+      <c r="M40" s="1">
+        <v>58.241758228250703</v>
+      </c>
+      <c r="N40" s="79">
+        <v>4.30327579909644E-7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="B41" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="C41" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="D41">
+        <v>175.27472527554499</v>
+      </c>
+      <c r="E41" s="79">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>224.72527472483401</v>
+      </c>
+      <c r="G41" s="79">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>250.00000000016499</v>
+      </c>
+      <c r="I41">
+        <v>789.01098900838304</v>
+      </c>
+      <c r="J41">
+        <v>58.241758243766199</v>
+      </c>
+      <c r="K41">
+        <v>-569999.99999998906</v>
+      </c>
+      <c r="L41" s="1">
+        <v>789.01098900838304</v>
+      </c>
+      <c r="M41" s="1">
+        <v>58.241758243766199</v>
+      </c>
+      <c r="N41" s="79">
+        <v>3.59866150976637E-7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="B42" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="C42" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="D42">
+        <v>175.27472526845099</v>
+      </c>
+      <c r="E42" s="79">
+        <v>2.9638727028213899E-9</v>
+      </c>
+      <c r="F42">
+        <v>224.72527472858499</v>
+      </c>
+      <c r="G42" s="79">
+        <v>1.1220038231840499E-9</v>
+      </c>
+      <c r="H42">
+        <v>249.999999998878</v>
+      </c>
+      <c r="I42">
+        <v>789.01098903083596</v>
+      </c>
+      <c r="J42">
+        <v>58.241758226412301</v>
+      </c>
+      <c r="K42">
+        <v>-570000.00000009197</v>
+      </c>
+      <c r="L42" s="1">
+        <v>789.01098903083596</v>
+      </c>
+      <c r="M42" s="1">
+        <v>58.241758226412301</v>
+      </c>
+      <c r="N42" s="79">
+        <v>2.8967819018359898E-7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="B43" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="C43" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="D43">
+        <v>175.274725270543</v>
+      </c>
+      <c r="E43" s="79">
+        <v>1.9717560917342702E-9</v>
+      </c>
+      <c r="F43">
+        <v>224.72527472748399</v>
+      </c>
+      <c r="G43" s="79">
+        <v>7.5576167546387296E-10</v>
+      </c>
+      <c r="H43">
+        <v>249.99999999924401</v>
+      </c>
+      <c r="I43">
+        <v>789.01098902422098</v>
+      </c>
+      <c r="J43">
+        <v>58.241758231530198</v>
+      </c>
+      <c r="K43">
+        <v>-570000.00000005995</v>
+      </c>
+      <c r="L43" s="1">
+        <v>789.01098902422098</v>
+      </c>
+      <c r="M43" s="1">
+        <v>58.241758231530198</v>
+      </c>
+      <c r="N43" s="79">
+        <v>2.1932015363710301E-7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="B44" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="C44" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="D44">
+        <v>175.27472527974601</v>
+      </c>
+      <c r="E44" s="79">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>224.72527472262399</v>
+      </c>
+      <c r="G44" s="79">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>250.00000000089901</v>
+      </c>
+      <c r="I44">
+        <v>789.01098899510305</v>
+      </c>
+      <c r="J44">
+        <v>58.241758254040597</v>
+      </c>
+      <c r="K44">
+        <v>-569999.99999992596</v>
+      </c>
+      <c r="L44" s="1">
+        <v>789.01098899510305</v>
+      </c>
+      <c r="M44" s="1">
+        <v>58.241758254040597</v>
+      </c>
+      <c r="N44" s="79">
+        <v>1.4893297861315701E-7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="B45" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="C45" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="D45">
+        <v>175.27472526732799</v>
+      </c>
+      <c r="E45" s="79">
+        <v>3.4910527801912299E-9</v>
+      </c>
+      <c r="F45">
+        <v>224.72527472918</v>
+      </c>
+      <c r="G45" s="79">
+        <v>1.3305765378390699E-9</v>
+      </c>
+      <c r="H45">
+        <v>249.99999999866901</v>
+      </c>
+      <c r="I45">
+        <v>789.01098903439402</v>
+      </c>
+      <c r="J45">
+        <v>58.241758223664498</v>
+      </c>
+      <c r="K45">
+        <v>-570000.00000010803</v>
+      </c>
+      <c r="L45" s="1">
+        <v>789.01098903439402</v>
+      </c>
+      <c r="M45" s="1">
+        <v>58.241758223664498</v>
+      </c>
+      <c r="N45" s="79">
+        <v>7.8678160376338495E-8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="B46" s="78">
+        <v>0.6</v>
+      </c>
+      <c r="C46" s="78">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>175.27472528525701</v>
+      </c>
+      <c r="E46" s="79">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>224.72527471971</v>
+      </c>
+      <c r="G46" s="79">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>250.000000001899</v>
+      </c>
+      <c r="I46">
+        <v>789.01098897766099</v>
+      </c>
+      <c r="J46">
+        <v>58.241758267521398</v>
+      </c>
+      <c r="K46">
+        <v>-569999.99999984598</v>
+      </c>
+      <c r="L46" s="1">
+        <v>789.01098897766099</v>
+      </c>
+      <c r="M46" s="1">
+        <v>58.241758267521398</v>
+      </c>
+      <c r="N46" s="79">
+        <v>8.3817818985628202E-9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="B47" s="78">
+        <v>0</v>
+      </c>
+      <c r="C47" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="D47">
+        <v>175.274725259002</v>
+      </c>
+      <c r="E47" s="79">
+        <v>7.4116428550041697E-9</v>
+      </c>
+      <c r="F47">
+        <v>224.725274733585</v>
+      </c>
+      <c r="G47" s="79">
+        <v>2.84727263988315E-9</v>
+      </c>
+      <c r="H47">
+        <v>249.999999997152</v>
+      </c>
+      <c r="I47">
+        <v>789.01098906074799</v>
+      </c>
+      <c r="J47">
+        <v>58.241758203297898</v>
+      </c>
+      <c r="K47">
+        <v>-570000.00000022806</v>
+      </c>
+      <c r="L47" s="1">
+        <v>789.01098906074799</v>
+      </c>
+      <c r="M47" s="1">
+        <v>58.241758203297898</v>
+      </c>
+      <c r="N47" s="79">
+        <v>3.5882068710495202E-7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="B48" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="C48" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="D48">
+        <v>175.274725287753</v>
+      </c>
+      <c r="E48" s="79">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>224.72527471839001</v>
+      </c>
+      <c r="G48" s="79">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>250.000000002353</v>
+      </c>
+      <c r="I48">
+        <v>789.010988969761</v>
+      </c>
+      <c r="J48">
+        <v>58.241758273626999</v>
+      </c>
+      <c r="K48">
+        <v>-569999.99999981001</v>
+      </c>
+      <c r="L48" s="1">
+        <v>789.010988969761</v>
+      </c>
+      <c r="M48" s="1">
+        <v>58.241758273626999</v>
+      </c>
+      <c r="N48" s="79">
+        <v>2.8797119125331E-7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="B49" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="C49" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="D49">
+        <v>175.27472527983301</v>
+      </c>
+      <c r="E49" s="79">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>224.72527472257801</v>
+      </c>
+      <c r="G49" s="79">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>250.000000000916</v>
+      </c>
+      <c r="I49">
+        <v>789.01098899482895</v>
+      </c>
+      <c r="J49">
+        <v>58.241758254252403</v>
+      </c>
+      <c r="K49">
+        <v>-569999.99999992503</v>
+      </c>
+      <c r="L49" s="1">
+        <v>789.01098899482895</v>
+      </c>
+      <c r="M49" s="1">
+        <v>58.241758254252403</v>
+      </c>
+      <c r="N49" s="79">
+        <v>2.17819374147271E-7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="B50" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="C50" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="D50">
+        <v>175.27472527084399</v>
+      </c>
+      <c r="E50" s="79">
+        <v>1.82519954705639E-9</v>
+      </c>
+      <c r="F50">
+        <v>224.72527472733</v>
+      </c>
+      <c r="G50" s="79">
+        <v>7.1315753302769704E-10</v>
+      </c>
+      <c r="H50">
+        <v>249.99999999928599</v>
+      </c>
+      <c r="I50">
+        <v>789.01098902327897</v>
+      </c>
+      <c r="J50">
+        <v>58.241758232262697</v>
+      </c>
+      <c r="K50">
+        <v>-570000.00000005495</v>
+      </c>
+      <c r="L50" s="1">
+        <v>789.01098902327897</v>
+      </c>
+      <c r="M50" s="1">
+        <v>58.241758232262697</v>
+      </c>
+      <c r="N50" s="79">
+        <v>1.4760237935516801E-7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="B51" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="C51" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="D51">
+        <v>175.27472527103799</v>
+      </c>
+      <c r="E51" s="79">
+        <v>1.7364953919241E-9</v>
+      </c>
+      <c r="F51">
+        <v>224.72527472722501</v>
+      </c>
+      <c r="G51" s="79">
+        <v>6.7110761392541401E-10</v>
+      </c>
+      <c r="H51">
+        <v>249.99999999932899</v>
+      </c>
+      <c r="I51">
+        <v>789.01098902265903</v>
+      </c>
+      <c r="J51">
+        <v>58.241758232739301</v>
+      </c>
+      <c r="K51">
+        <v>-570000.00000005297</v>
+      </c>
+      <c r="L51" s="1">
+        <v>789.01098902265903</v>
+      </c>
+      <c r="M51" s="1">
+        <v>58.241758232739301</v>
+      </c>
+      <c r="N51" s="79">
+        <v>7.7278707707050505E-8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="B52" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="C52" s="78">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>175.27472528721401</v>
+      </c>
+      <c r="E52" s="79">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>224.72527471867801</v>
+      </c>
+      <c r="G52" s="79">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>250.00000000224901</v>
+      </c>
+      <c r="I52">
+        <v>789.01098897147097</v>
+      </c>
+      <c r="J52">
+        <v>58.241758272307997</v>
+      </c>
+      <c r="K52">
+        <v>-569999.999999817</v>
+      </c>
+      <c r="L52" s="1">
+        <v>789.01098897147097</v>
+      </c>
+      <c r="M52" s="1">
+        <v>58.241758272307997</v>
+      </c>
+      <c r="N52" s="79">
+        <v>6.9886709942703399E-9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="78">
+        <v>0.6</v>
+      </c>
+      <c r="B53" s="78">
+        <v>0</v>
+      </c>
+      <c r="C53" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="D53">
+        <v>175.27472527415</v>
+      </c>
+      <c r="E53" s="79">
+        <v>2.6923885343421701E-10</v>
+      </c>
+      <c r="F53">
+        <v>224.72527472557999</v>
+      </c>
+      <c r="G53" s="79">
+        <v>1.08002495835535E-10</v>
+      </c>
+      <c r="H53">
+        <v>249.999999999892</v>
+      </c>
+      <c r="I53">
+        <v>789.01098901281</v>
+      </c>
+      <c r="J53">
+        <v>58.241758240351999</v>
+      </c>
+      <c r="K53">
+        <v>-570000.00000000803</v>
+      </c>
+      <c r="L53" s="1">
+        <v>789.01098901281</v>
+      </c>
+      <c r="M53" s="1">
+        <v>58.241758240351999</v>
+      </c>
+      <c r="N53" s="79">
+        <v>2.8680191308979799E-7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="78">
+        <v>0.6</v>
+      </c>
+      <c r="B54" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="C54" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="D54">
+        <v>175.274725272696</v>
+      </c>
+      <c r="E54" s="79">
+        <v>9.5477048489556099E-10</v>
+      </c>
+      <c r="F54">
+        <v>224.725274726348</v>
+      </c>
+      <c r="G54" s="79">
+        <v>3.70718566955474E-10</v>
+      </c>
+      <c r="H54">
+        <v>249.99999999962901</v>
+      </c>
+      <c r="I54">
+        <v>789.01098901741</v>
+      </c>
+      <c r="J54">
+        <v>58.241758236796002</v>
+      </c>
+      <c r="K54">
+        <v>-570000.00000002899</v>
+      </c>
+      <c r="L54" s="1">
+        <v>789.01098901741</v>
+      </c>
+      <c r="M54" s="1">
+        <v>58.241758236796002</v>
+      </c>
+      <c r="N54" s="79">
+        <v>2.1651171955099201E-7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="78">
+        <v>0.6</v>
+      </c>
+      <c r="B55" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="C55" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="D55">
+        <v>175.27472526398699</v>
+      </c>
+      <c r="E55" s="79">
+        <v>5.0673065743467297E-9</v>
+      </c>
+      <c r="F55">
+        <v>224.72527473094499</v>
+      </c>
+      <c r="G55" s="79">
+        <v>1.93188043340342E-9</v>
+      </c>
+      <c r="H55">
+        <v>249.99999999806801</v>
+      </c>
+      <c r="I55">
+        <v>789.01098904496303</v>
+      </c>
+      <c r="J55">
+        <v>58.241758215493597</v>
+      </c>
+      <c r="K55">
+        <v>-570000.000000156</v>
+      </c>
+      <c r="L55" s="1">
+        <v>789.01098904496303</v>
+      </c>
+      <c r="M55" s="1">
+        <v>58.241758215493597</v>
+      </c>
+      <c r="N55" s="79">
+        <v>1.46263383494028E-7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="78">
+        <v>0.6</v>
+      </c>
+      <c r="B56" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="C56" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="D56">
+        <v>175.27472526650101</v>
+      </c>
+      <c r="E56" s="79">
+        <v>3.8803023016953301E-9</v>
+      </c>
+      <c r="F56">
+        <v>224.72527472961801</v>
+      </c>
+      <c r="G56" s="79">
+        <v>1.4813110738032201E-9</v>
+      </c>
+      <c r="H56">
+        <v>249.99999999851801</v>
+      </c>
+      <c r="I56">
+        <v>789.01098903701097</v>
+      </c>
+      <c r="J56">
+        <v>58.241758221642101</v>
+      </c>
+      <c r="K56">
+        <v>-570000.00000011898</v>
+      </c>
+      <c r="L56" s="1">
+        <v>789.01098903701097</v>
+      </c>
+      <c r="M56" s="1">
+        <v>58.241758221642101</v>
+      </c>
+      <c r="N56" s="79">
+        <v>7.5901105490054296E-8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="78">
+        <v>0.6</v>
+      </c>
+      <c r="B57" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="C57" s="78">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>175.274725263834</v>
+      </c>
+      <c r="E57" s="79">
+        <v>5.1429367431410298E-9</v>
+      </c>
+      <c r="F57">
+        <v>224.72527473102301</v>
+      </c>
+      <c r="G57" s="79">
+        <v>1.95223037735559E-9</v>
+      </c>
+      <c r="H57">
+        <v>249.999999998047</v>
+      </c>
+      <c r="I57">
+        <v>789.01098904544494</v>
+      </c>
+      <c r="J57">
+        <v>58.2417582151188</v>
+      </c>
+      <c r="K57">
+        <v>-570000.00000015902</v>
+      </c>
+      <c r="L57" s="1">
+        <v>789.01098904544494</v>
+      </c>
+      <c r="M57" s="1">
+        <v>58.2417582151188</v>
+      </c>
+      <c r="N57" s="79">
+        <v>5.55373043310056E-9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="78">
+        <v>0.7</v>
+      </c>
+      <c r="B58" s="78">
+        <v>0</v>
+      </c>
+      <c r="C58" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="D58">
+        <v>175.27472527548301</v>
+      </c>
+      <c r="E58" s="79">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>224.725274724868</v>
+      </c>
+      <c r="G58" s="79">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>250.00000000015001</v>
+      </c>
+      <c r="I58">
+        <v>789.01098900858199</v>
+      </c>
+      <c r="J58">
+        <v>58.241758243614299</v>
+      </c>
+      <c r="K58">
+        <v>-569999.99999998906</v>
+      </c>
+      <c r="L58" s="1">
+        <v>789.01098900858199</v>
+      </c>
+      <c r="M58" s="1">
+        <v>58.241758243614299</v>
+      </c>
+      <c r="N58" s="79">
+        <v>2.15084612387366E-7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="78">
+        <v>0.7</v>
+      </c>
+      <c r="B59" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="C59" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="D59">
+        <v>175.274725267365</v>
+      </c>
+      <c r="E59" s="79">
+        <v>3.4707312579485002E-9</v>
+      </c>
+      <c r="F59">
+        <v>224.725274729163</v>
+      </c>
+      <c r="G59" s="79">
+        <v>1.32968125399202E-9</v>
+      </c>
+      <c r="H59">
+        <v>249.99999999867001</v>
+      </c>
+      <c r="I59">
+        <v>789.01098903427896</v>
+      </c>
+      <c r="J59">
+        <v>58.241758223755497</v>
+      </c>
+      <c r="K59">
+        <v>-570000.00000010699</v>
+      </c>
+      <c r="L59" s="1">
+        <v>789.01098903427896</v>
+      </c>
+      <c r="M59" s="1">
+        <v>58.241758223755497</v>
+      </c>
+      <c r="N59" s="79">
+        <v>1.4484788148118999E-7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="78">
+        <v>0.7</v>
+      </c>
+      <c r="B60" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="C60" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="D60">
+        <v>175.274725272235</v>
+      </c>
+      <c r="E60" s="79">
+        <v>1.1756355888792299E-9</v>
+      </c>
+      <c r="F60">
+        <v>224.725274726588</v>
+      </c>
+      <c r="G60" s="79">
+        <v>4.4632031404034902E-10</v>
+      </c>
+      <c r="H60">
+        <v>249.99999999955301</v>
+      </c>
+      <c r="I60">
+        <v>789.01098901886496</v>
+      </c>
+      <c r="J60">
+        <v>58.241758235669003</v>
+      </c>
+      <c r="K60">
+        <v>-570000.00000003597</v>
+      </c>
+      <c r="L60" s="1">
+        <v>789.01098901886496</v>
+      </c>
+      <c r="M60" s="1">
+        <v>58.241758235669003</v>
+      </c>
+      <c r="N60" s="79">
+        <v>7.4492080368463E-8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="78">
+        <v>0.7</v>
+      </c>
+      <c r="B61" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="C61" s="78">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>175.274725261936</v>
+      </c>
+      <c r="E61" s="79">
+        <v>6.0361173837009102E-9</v>
+      </c>
+      <c r="F61">
+        <v>224.725274732027</v>
+      </c>
+      <c r="G61" s="79">
+        <v>2.2988331238593599E-9</v>
+      </c>
+      <c r="H61">
+        <v>249.999999997701</v>
+      </c>
+      <c r="I61">
+        <v>789.01098905145102</v>
+      </c>
+      <c r="J61">
+        <v>58.2417582104774</v>
+      </c>
+      <c r="K61">
+        <v>-570000.00000018603</v>
+      </c>
+      <c r="L61" s="1">
+        <v>789.01098905145102</v>
+      </c>
+      <c r="M61" s="1">
+        <v>58.2417582104774</v>
+      </c>
+      <c r="N61" s="79">
+        <v>4.1631175285869798E-9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="B62" s="78">
+        <v>0</v>
+      </c>
+      <c r="C62" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="D62">
+        <v>175.27472527586201</v>
+      </c>
+      <c r="E62" s="79">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>224.72527472466601</v>
+      </c>
+      <c r="G62" s="79">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>250.00000000022101</v>
+      </c>
+      <c r="I62">
+        <v>789.01098900737998</v>
+      </c>
+      <c r="J62">
+        <v>58.2417582445416</v>
+      </c>
+      <c r="K62">
+        <v>-569999.99999998405</v>
+      </c>
+      <c r="L62" s="1">
+        <v>789.01098900737998</v>
+      </c>
+      <c r="M62" s="1">
+        <v>58.2417582445416</v>
+      </c>
+      <c r="N62" s="79">
+        <v>1.43386543788215E-7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="B63" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="C63" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="D63">
+        <v>175.27472526354001</v>
+      </c>
+      <c r="E63" s="79">
+        <v>5.2789204119108002E-9</v>
+      </c>
+      <c r="F63">
+        <v>224.725274731181</v>
+      </c>
+      <c r="G63" s="79">
+        <v>2.0115749066462699E-9</v>
+      </c>
+      <c r="H63">
+        <v>249.999999997988</v>
+      </c>
+      <c r="I63">
+        <v>789.010989046379</v>
+      </c>
+      <c r="J63">
+        <v>58.2417582143987</v>
+      </c>
+      <c r="K63">
+        <v>-570000.00000016298</v>
+      </c>
+      <c r="L63" s="1">
+        <v>789.010989046379</v>
+      </c>
+      <c r="M63" s="1">
+        <v>58.2417582143987</v>
+      </c>
+      <c r="N63" s="79">
+        <v>7.3133538892414395E-8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="B64" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="C64" s="78">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>175.27472527376599</v>
+      </c>
+      <c r="E64" s="79">
+        <v>4.6210857362893798E-10</v>
+      </c>
+      <c r="F64">
+        <v>224.72527472577099</v>
+      </c>
+      <c r="G64" s="79">
+        <v>1.50293999467976E-10</v>
+      </c>
+      <c r="H64">
+        <v>249.999999999849</v>
+      </c>
+      <c r="I64">
+        <v>789.01098901400701</v>
+      </c>
+      <c r="J64">
+        <v>58.241758239416797</v>
+      </c>
+      <c r="K64">
+        <v>-570000.00000001502</v>
+      </c>
+      <c r="L64" s="1">
+        <v>789.01098901400701</v>
+      </c>
+      <c r="M64" s="1">
+        <v>58.241758239416797</v>
+      </c>
+      <c r="N64" s="79">
+        <v>2.7847719268786102E-9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="78">
+        <v>0.9</v>
+      </c>
+      <c r="B65" s="78">
+        <v>0</v>
+      </c>
+      <c r="C65" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="D65">
+        <v>175.27472527199299</v>
+      </c>
+      <c r="E65" s="79">
+        <v>1.28923716147255E-9</v>
+      </c>
+      <c r="F65">
+        <v>224.725274726717</v>
+      </c>
+      <c r="G65" s="79">
+        <v>4.9180925998371001E-10</v>
+      </c>
+      <c r="H65">
+        <v>249.99999999950799</v>
+      </c>
+      <c r="I65">
+        <v>789.01098901963303</v>
+      </c>
+      <c r="J65">
+        <v>58.2417582350757</v>
+      </c>
+      <c r="K65">
+        <v>-570000.000000039</v>
+      </c>
+      <c r="L65" s="1">
+        <v>789.01098901963303</v>
+      </c>
+      <c r="M65" s="1">
+        <v>58.2417582350757</v>
+      </c>
+      <c r="N65" s="79">
+        <v>7.1709598296480003E-8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="78">
+        <v>0.9</v>
+      </c>
+      <c r="B66" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="C66" s="78">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>175.27472526091699</v>
+      </c>
+      <c r="E66" s="79">
+        <v>6.5155632000823896E-9</v>
+      </c>
+      <c r="F66">
+        <v>224.72527473256699</v>
+      </c>
+      <c r="G66" s="79">
+        <v>2.4857911284925599E-9</v>
+      </c>
+      <c r="H66">
+        <v>249.99999999751401</v>
+      </c>
+      <c r="I66">
+        <v>789.01098905467904</v>
+      </c>
+      <c r="J66">
+        <v>58.2417582079837</v>
+      </c>
+      <c r="K66">
+        <v>-570000.00000020105</v>
+      </c>
+      <c r="L66" s="1">
+        <v>789.01098905467904</v>
+      </c>
+      <c r="M66" s="1">
+        <v>58.2417582079837</v>
+      </c>
+      <c r="N66" s="79">
+        <v>1.38753832393752E-9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="78">
+        <v>1</v>
+      </c>
+      <c r="B67" s="78">
+        <v>0</v>
+      </c>
+      <c r="C67" s="78">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>175.27472528226301</v>
+      </c>
+      <c r="E67" s="79">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>224.72527472129201</v>
+      </c>
+      <c r="G67" s="79">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>250.00000000135901</v>
+      </c>
+      <c r="I67">
+        <v>789.01098898713497</v>
+      </c>
+      <c r="J67">
+        <v>58.241758260197997</v>
+      </c>
+      <c r="K67">
+        <v>-569999.99999988999</v>
+      </c>
+      <c r="L67" s="1">
+        <v>789.01098898713497</v>
+      </c>
+      <c r="M67" s="1">
+        <v>58.241758260197997</v>
+      </c>
+      <c r="N67" s="79">
+        <v>-1.92870318546499E-13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M69" t="s">
+        <v>67</v>
+      </c>
+      <c r="N69" s="83">
+        <f>MAX(N2:N67)</f>
+        <v>7.1721217371049801E-7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M70" t="s">
+        <v>68</v>
+      </c>
+      <c r="N70" s="84">
+        <f>MIN(N2:N67)</f>
+        <v>-9.9226999274059396E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="N13:N67">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>$N$69</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>$N$70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/МПОР2.xlsx
+++ b/МПОР2.xlsx
@@ -689,13 +689,13 @@
     <xf numFmtId="11" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,14 +719,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2226,7 +2226,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2298,7 +2297,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="64"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2330,7 +2328,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{E4628409-DC7B-4E6E-B40E-D534B840D362}</c15:txfldGUID>
@@ -2344,6 +2341,9 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-B985-4749-B8DE-EC26685397B1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2398,7 +2398,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2880,7 +2879,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2990,7 +2988,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3182,7 +3179,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3384,7 +3380,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3506,7 +3501,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3670,7 +3664,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3742,7 +3735,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3774,7 +3766,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{E4628409-DC7B-4E6E-B40E-D534B840D362}</c15:txfldGUID>
@@ -3788,6 +3779,9 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-CF91-475F-BB0F-51BFD4A293FF}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3842,7 +3836,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4324,7 +4317,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4434,7 +4426,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4626,7 +4617,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4828,7 +4818,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4950,7 +4939,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9588,7 +9576,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="84" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="31">
@@ -9606,7 +9594,7 @@
       <c r="F2" s="32">
         <v>1</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="84" t="s">
         <v>47</v>
       </c>
       <c r="J2" s="31">
@@ -9623,7 +9611,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
+      <c r="A3" s="84"/>
       <c r="B3" s="31">
         <v>16</v>
       </c>
@@ -9639,7 +9627,7 @@
       <c r="F3" s="32">
         <v>1</v>
       </c>
-      <c r="I3" s="82"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="31">
         <v>1</v>
       </c>
@@ -9996,17 +9984,17 @@
       <c r="A21" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
       <c r="M21" s="19" t="str">
         <f>IF(E13&gt;0, K13/E13, "-")</f>
         <v>-</v>
@@ -10031,19 +10019,19 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="J25" s="84" t="s">
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="J25" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
       <c r="M25" s="1">
         <f>E15</f>
         <v>2</v>
@@ -10322,56 +10310,56 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
       <c r="M35" s="1">
         <f>ABS(MIN(B32:K32))</f>
         <v>10.500000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="84" t="s">
+      <c r="A36" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
       <c r="M36" s="19">
         <f>IF(D28&gt;0, K28/D28, "-")</f>
         <v>400</v>
@@ -10396,19 +10384,19 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="J40" s="84" t="s">
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="J40" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="K40" s="84"/>
-      <c r="L40" s="84"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
       <c r="M40" s="1">
         <f>D29</f>
         <v>5.5</v>
@@ -10687,56 +10675,56 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="84" t="s">
+      <c r="A49" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="84"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="84"/>
-      <c r="L49" s="84"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="82"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="84" t="s">
+      <c r="A50" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="84"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="84"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="84"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
       <c r="M50" s="1">
         <f>ABS(MIN(B47:K47))</f>
         <v>3.2727272727272751</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="84" t="s">
+      <c r="A51" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="84"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
       <c r="M51" s="28">
         <f>IF(B43&gt;0, K43/B43, "-")</f>
         <v>144.44444444444446</v>
@@ -10761,19 +10749,19 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="84" t="s">
+      <c r="A55" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="84"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="J55" s="84" t="s">
+      <c r="B55" s="82"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="J55" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="K55" s="84"/>
-      <c r="L55" s="84"/>
+      <c r="K55" s="82"/>
+      <c r="L55" s="82"/>
       <c r="M55" s="1">
         <f>B43</f>
         <v>2.4545454545454546</v>
@@ -11123,6 +11111,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A34:L34"/>
     <mergeCell ref="A51:L51"/>
     <mergeCell ref="J55:L55"/>
     <mergeCell ref="A55:F55"/>
@@ -11131,16 +11129,6 @@
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="A49:L49"/>
     <mergeCell ref="A50:L50"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="A20:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11190,7 +11178,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="84" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="31">
@@ -11208,7 +11196,7 @@
       <c r="F2" s="32">
         <v>1</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="84" t="s">
         <v>47</v>
       </c>
       <c r="J2" s="31">
@@ -11225,7 +11213,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
+      <c r="A3" s="84"/>
       <c r="B3" s="31">
         <v>16</v>
       </c>
@@ -11241,7 +11229,7 @@
       <c r="F3" s="32">
         <v>1</v>
       </c>
-      <c r="I3" s="82"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="31">
         <v>1</v>
       </c>
@@ -11586,17 +11574,17 @@
       <c r="A21" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
       <c r="M21" s="19" t="str">
         <f>IF(E13&gt;0, I13/E13, "-")</f>
         <v>-</v>
@@ -11621,19 +11609,19 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="J25" s="84" t="s">
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="J25" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
       <c r="M25" s="1">
         <f>E15</f>
         <v>2</v>
@@ -11876,56 +11864,56 @@
       <c r="K32"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
       <c r="M35" s="1">
         <f>ABS(MIN(B32:K32))</f>
         <v>10.500000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="84" t="s">
+      <c r="A36" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
       <c r="M36" s="19">
         <f>IF(D28&gt;0, I28/D28, "-")</f>
         <v>400</v>
@@ -11950,19 +11938,19 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="J40" s="84" t="s">
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="J40" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="K40" s="84"/>
-      <c r="L40" s="84"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
       <c r="M40" s="1">
         <f>D29</f>
         <v>5.5</v>
@@ -12205,56 +12193,56 @@
       <c r="K47"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="84" t="s">
+      <c r="A49" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="84"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="84"/>
-      <c r="L49" s="84"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="82"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="84" t="s">
+      <c r="A50" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="84"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="84"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="84"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
       <c r="M50" s="1">
         <f>ABS(MIN(B47:K47))</f>
         <v>3.2727272727272716</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="84" t="s">
+      <c r="A51" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="84"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
       <c r="M51" s="28">
         <f>IF(B43&gt;0, I43/B43, "-")</f>
         <v>144.44444444444446</v>
@@ -12279,19 +12267,19 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="84" t="s">
+      <c r="A55" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="84"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="J55" s="84" t="s">
+      <c r="B55" s="82"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="J55" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="K55" s="84"/>
-      <c r="L55" s="84"/>
+      <c r="K55" s="82"/>
+      <c r="L55" s="82"/>
       <c r="M55" s="1">
         <f>B43</f>
         <v>2.4545454545454546</v>
@@ -12609,11 +12597,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A49:L49"/>
-    <mergeCell ref="A50:L50"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="J55:L55"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="J40:L40"/>
     <mergeCell ref="A2:A3"/>
@@ -12627,6 +12610,11 @@
     <mergeCell ref="A34:L34"/>
     <mergeCell ref="A35:L35"/>
     <mergeCell ref="A36:L36"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="J55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12676,7 +12664,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="84" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="31">
@@ -12694,7 +12682,7 @@
       <c r="F2" s="32">
         <v>1</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="84" t="s">
         <v>47</v>
       </c>
       <c r="J2" s="31">
@@ -12711,7 +12699,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
+      <c r="A3" s="84"/>
       <c r="B3" s="31">
         <v>16</v>
       </c>
@@ -12727,7 +12715,7 @@
       <c r="F3" s="32">
         <v>1</v>
       </c>
-      <c r="I3" s="82"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="31">
         <v>1</v>
       </c>
@@ -13072,17 +13060,17 @@
       <c r="A21" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
       <c r="M21" s="19" t="str">
         <f>IF(E13&gt;0, I13/E13, "-")</f>
         <v>-</v>
@@ -13107,19 +13095,19 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="J25" s="84" t="s">
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="J25" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
       <c r="M25" s="1">
         <f>E15</f>
         <v>2</v>
@@ -13362,56 +13350,56 @@
       <c r="K32"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
       <c r="M35" s="1">
         <f>ABS(MIN(B32:K32))</f>
         <v>10.500000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="84" t="s">
+      <c r="A36" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
       <c r="M36" s="19">
         <f>IF(D28&gt;0, I28/D28, "-")</f>
         <v>400</v>
@@ -13436,19 +13424,19 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="J40" s="84" t="s">
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="J40" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="K40" s="84"/>
-      <c r="L40" s="84"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
       <c r="M40" s="1">
         <f>D29</f>
         <v>5.5</v>
@@ -13691,56 +13679,56 @@
       <c r="K47"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="84" t="s">
+      <c r="A49" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="84"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="84"/>
-      <c r="L49" s="84"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="82"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="84" t="s">
+      <c r="A50" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="84"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="84"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="84"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
       <c r="M50" s="1">
         <f>ABS(MIN(B47:K47))</f>
         <v>3.2727272727272716</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="84" t="s">
+      <c r="A51" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="84"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
       <c r="M51" s="28">
         <f>IF(B43&gt;0, I43/B43, "-")</f>
         <v>144.44444444444446</v>
@@ -13765,19 +13753,19 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="84" t="s">
+      <c r="A55" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="84"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="J55" s="84" t="s">
+      <c r="B55" s="82"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="J55" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="K55" s="84"/>
-      <c r="L55" s="84"/>
+      <c r="K55" s="82"/>
+      <c r="L55" s="82"/>
       <c r="M55" s="1">
         <f>B43</f>
         <v>2.4545454545454546</v>
@@ -14095,11 +14083,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A49:L49"/>
-    <mergeCell ref="A50:L50"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="J55:L55"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="J40:L40"/>
     <mergeCell ref="A2:A3"/>
@@ -14113,6 +14096,11 @@
     <mergeCell ref="A34:L34"/>
     <mergeCell ref="A35:L35"/>
     <mergeCell ref="A36:L36"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="J55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14124,7 +14112,7 @@
   <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73:K74"/>
+      <selection activeCell="K70" sqref="K70:K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17087,25 +17075,25 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>175.27472526091699</v>
+        <v>176</v>
       </c>
       <c r="E67" s="79">
-        <v>6.5155632000823896E-9</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>224.72527473256699</v>
+        <v>224</v>
       </c>
       <c r="G67" s="79">
-        <v>2.4857911284925599E-9</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>249.99999999751401</v>
       </c>
       <c r="I67">
-        <v>789.01098905467904</v>
+        <v>790</v>
       </c>
       <c r="J67">
-        <v>58.2417582079837</v>
+        <v>59</v>
       </c>
       <c r="K67">
         <v>-569999.99999988999</v>
@@ -17136,15 +17124,15 @@
       </c>
       <c r="E70" s="79">
         <f>6*E67</f>
-        <v>3.9093379200494336E-8</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <f>9*F67</f>
-        <v>2022.5274725931029</v>
+        <v>2016</v>
       </c>
       <c r="G70" s="79">
         <f>6*G67</f>
-        <v>1.491474677095536E-8</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <f>5*H67</f>
@@ -17152,15 +17140,15 @@
       </c>
       <c r="I70">
         <f>-4*I67</f>
-        <v>-3156.0439562187162</v>
+        <v>-3160</v>
       </c>
       <c r="J70">
         <f>-2*J67</f>
-        <v>-116.4835164159674</v>
+        <v>-118</v>
       </c>
       <c r="K70" s="79">
         <f>SUM(E70:J70)</f>
-        <v>-2.4868995751603507E-12</v>
+        <v>-12.000000012430064</v>
       </c>
       <c r="M70" t="s">
         <v>68</v>
@@ -17173,19 +17161,19 @@
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D71">
         <f>4*D67</f>
-        <v>701.09890104366798</v>
+        <v>704</v>
       </c>
       <c r="E71" s="79">
         <f>3*E67</f>
-        <v>1.9546689600247168E-8</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <f>4*F67</f>
-        <v>898.90109893026795</v>
+        <v>896</v>
       </c>
       <c r="G71" s="79">
         <f>5*G67</f>
-        <v>1.24289556424628E-8</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <f>4*H67</f>
@@ -17193,25 +17181,25 @@
       </c>
       <c r="I71">
         <f>-3*I67</f>
-        <v>-2367.032967164037</v>
+        <v>-2370</v>
       </c>
       <c r="J71">
         <f>-4*J67</f>
-        <v>-232.9670328319348</v>
+        <v>-236</v>
       </c>
       <c r="K71">
         <f>SUM(D71:J71)</f>
-        <v>-4.5190517994342372E-12</v>
+        <v>-6.0000000099439603</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D72">
         <f>10*D67</f>
-        <v>1752.7472526091699</v>
+        <v>1760</v>
       </c>
       <c r="E72" s="79">
         <f>16*E67</f>
-        <v>1.0424901120131823E-7</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <f>0</f>
@@ -17219,7 +17207,7 @@
       </c>
       <c r="G72" s="79">
         <f>8*G67</f>
-        <v>1.9886329027940479E-8</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <f>0</f>
@@ -17227,39 +17215,39 @@
       </c>
       <c r="I72">
         <f>-2*I67</f>
-        <v>-1578.0219781093581</v>
+        <v>-1580</v>
       </c>
       <c r="J72">
         <f>-3*J67</f>
-        <v>-174.72527462395109</v>
+        <v>-177</v>
       </c>
       <c r="K72">
         <f>SUM(D72:J72)</f>
-        <v>-3.950617610826157E-12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D73">
         <f>D67</f>
-        <v>175.27472526091699</v>
+        <v>176</v>
       </c>
       <c r="E73" s="79">
         <f>E67</f>
-        <v>6.5155632000823896E-9</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <f>F67</f>
-        <v>224.72527473256699</v>
+        <v>224</v>
       </c>
       <c r="K73">
         <f>SUM(D73:F73)</f>
-        <v>399.99999999999955</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G74" s="79">
         <f>G67</f>
-        <v>2.4857911284925599E-9</v>
+        <v>0</v>
       </c>
       <c r="H74">
         <f>H67</f>
@@ -17267,7 +17255,7 @@
       </c>
       <c r="K74" s="1">
         <f>SUM(G74:H74)</f>
-        <v>249.9999999999998</v>
+        <v>249.99999999751401</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -20913,10 +20901,10 @@
     <sortCondition ref="B1"/>
   </sortState>
   <conditionalFormatting sqref="N13:N67">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>$N$70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>$N$69</formula>
     </cfRule>
   </conditionalFormatting>
